--- a/data/input/absenteeism_data_21.xlsx
+++ b/data/input/absenteeism_data_21.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95592</v>
+        <v>74043</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Thomas Moraes</t>
+          <t>Emilly Moura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>9931.51</v>
+        <v>7738.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80078</v>
+        <v>62398</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>André Cardoso</t>
+          <t>Luiz Felipe Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45087</v>
       </c>
       <c r="G3" t="n">
-        <v>5452.42</v>
+        <v>5355.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48637</v>
+        <v>20381</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lorena Carvalho</t>
+          <t>Luigi Santos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,51 +552,51 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>11672.37</v>
+        <v>5382.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61263</v>
+        <v>49720</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sra. Emanuella Fogaça</t>
+          <t>Vicente Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>4956.17</v>
+        <v>7272.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76968</v>
+        <v>51347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Alice Rocha</t>
+          <t>Ana Cavalcanti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,26 +606,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G6" t="n">
-        <v>12476.3</v>
+        <v>10602.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43312</v>
+        <v>77012</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caroline da Cruz</t>
+          <t>Davi Lucas Fogaça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,24 +642,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>7462.74</v>
+        <v>4012.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40365</v>
+        <v>47757</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marcela da Cruz</t>
+          <t>Fernando Rezende</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>11973.47</v>
+        <v>3340.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20985</v>
+        <v>64431</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elisa Gomes</t>
+          <t>Bernardo Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>11066.15</v>
+        <v>2758.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>24849</v>
+        <v>71722</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heloísa Santos</t>
+          <t>Marcelo Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>5944.88</v>
+        <v>6545.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19740</v>
+        <v>56587</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Monteiro</t>
+          <t>Sr. Murilo Rezende</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>8637.129999999999</v>
+        <v>10867.78</v>
       </c>
     </row>
   </sheetData>
